--- a/FuzzySets.xlsx
+++ b/FuzzySets.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t xml:space="preserve">Лабораторная работа №1 Инструменталиные средства VBA для работы с нечеткими множествами в MS EXCEL</t>
   </si>
@@ -57,7 +57,16 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Лабораторная работа №2. Нечеткие множества и операции над ними</t>
+    <t xml:space="preserve">µa(x1n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µa(x2n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2</t>
   </si>
 </sst>
 </file>
@@ -133,7 +142,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -148,6 +157,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -174,7 +187,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="K2:S7 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -359,7 +372,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="K2:S7 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,10 +554,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,127 +566,127 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+      <c r="A3" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>9</v>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="0" t="n">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="C5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
